--- a/ManualTestCasesTheBloomprint.xlsx
+++ b/ManualTestCasesTheBloomprint.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29012"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="287" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{986C4A7E-3356-40B7-BEC0-769E2292B432}"/>
+  <xr:revisionPtr revIDLastSave="344" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C239205-61BA-49BE-9285-D599ED6BF1EF}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="77">
   <si>
     <t>Project Name:</t>
   </si>
@@ -249,15 +249,88 @@
 Navigation</t>
   </si>
   <si>
+    <t>TC_NAV_008</t>
+  </si>
+  <si>
     <t>Verify navigation of
 plant profile pages</t>
+  </si>
+  <si>
+    <t>'Home' button in header nav bar 
+of Allium plant profile page</t>
+  </si>
+  <si>
+    <t>1. Load website in browser
+2. Scroll down to bottom of homepage
+3. Click Allium name button
+4. Click 'Home' button in header nav bar</t>
+  </si>
+  <si>
+    <t>Homepage should load 
+in browser</t>
+  </si>
+  <si>
+    <t>Allium flower profile page</t>
+  </si>
+  <si>
+    <t>The button is inactive, 
+there is no change when
+it is clicked</t>
+  </si>
+  <si>
+    <t>'Home' button is not clickable</t>
+  </si>
+  <si>
+    <t>TC_NAV_009</t>
+  </si>
+  <si>
+    <t>'Plants' button in header nav bar 
+of Allium plant profile page</t>
+  </si>
+  <si>
+    <t>1. Load website in browser
+2. Scroll down to bottom of homepage
+3. Click Allium name button
+4. Click 'Plants' button in header nav bar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Browser should load plant
+selection at bottom of
+homepage </t>
+  </si>
+  <si>
+    <t>'Plants' button is not clickable</t>
+  </si>
+  <si>
+    <t>TC_NAV_010</t>
+  </si>
+  <si>
+    <t>'Gallery' button in header nav bar 
+of Allium plant profile page</t>
+  </si>
+  <si>
+    <t>1. Load website in browser
+2. Scroll down to bottom of homepage
+3. Click Allium name button
+4. Click 'Gallery' button in header nav bar</t>
+  </si>
+  <si>
+    <t>Inactive button. Allium profile page should reman in browser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The button is inactive, 
+there is no change when
+it is clicked </t>
+  </si>
+  <si>
+    <t>'Gallery' button is not clickable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,6 +374,12 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4EA72E"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -467,7 +546,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -525,6 +604,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -582,8 +664,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3A16B4CF-6B47-484F-9383-05B102ED0A91}" name="Table1" displayName="Table1" ref="A7:K15" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1">
-  <autoFilter ref="A7:K15" xr:uid="{3A16B4CF-6B47-484F-9383-05B102ED0A91}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3A16B4CF-6B47-484F-9383-05B102ED0A91}" name="Table1" displayName="Table1" ref="A7:K17" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1">
+  <autoFilter ref="A7:K17" xr:uid="{3A16B4CF-6B47-484F-9383-05B102ED0A91}"/>
   <tableColumns count="11">
     <tableColumn id="11" xr3:uid="{42509C20-D03F-42EA-B308-FD280B040CAC}" name="Category" dataDxfId="0"/>
     <tableColumn id="1" xr3:uid="{0D04EE35-8A9B-42A3-AAD7-8C35C058484D}" name="Test Case ID"/>
@@ -918,10 +1000,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="C15" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -931,8 +1013,8 @@
     <col min="3" max="3" width="18.140625" customWidth="1"/>
     <col min="4" max="4" width="28.28515625" customWidth="1"/>
     <col min="5" max="5" width="29.5703125" customWidth="1"/>
-    <col min="6" max="6" width="34.42578125" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" customWidth="1"/>
+    <col min="6" max="6" width="35.7109375" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" customWidth="1"/>
     <col min="8" max="8" width="23" customWidth="1"/>
     <col min="9" max="9" width="22.5703125" customWidth="1"/>
     <col min="10" max="10" width="12.5703125" customWidth="1"/>
@@ -1226,20 +1308,110 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="54.75" customHeight="1">
+    <row r="15" spans="1:11" ht="66" customHeight="1">
       <c r="A15" s="23" t="s">
         <v>57</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="55.5" customHeight="1">
+      <c r="A16" s="9"/>
+      <c r="B16" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="57.75">
+      <c r="A17" s="9"/>
+      <c r="B17" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="J17" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J8:J15" xr:uid="{2F1C9CAE-F539-446B-BF9B-8EBE41EDDC96}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J8:J17" xr:uid="{2F1C9CAE-F539-446B-BF9B-8EBE41EDDC96}">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ManualTestCasesTheBloomprint.xlsx
+++ b/ManualTestCasesTheBloomprint.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29012"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="344" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C239205-61BA-49BE-9285-D599ED6BF1EF}"/>
+  <xr:revisionPtr revIDLastSave="384" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B2BE232-BC38-4B68-89B4-48D0C814E63A}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="88">
   <si>
     <t>Project Name:</t>
   </si>
@@ -200,7 +200,7 @@
   </si>
   <si>
     <t>The gallery is not an available 
-page in the bloomprint yet. Perhaps add 'coming soon page.</t>
+page in the bloomprint yet. Perhaps add 'coming soon page.'</t>
   </si>
   <si>
     <t>TC_NAV_006</t>
@@ -324,6 +324,55 @@
   </si>
   <si>
     <t>'Gallery' button is not clickable</t>
+  </si>
+  <si>
+    <t>TC_NAV_011</t>
+  </si>
+  <si>
+    <t>'Home' button in footer nav bar 
+of Allium plant profile page</t>
+  </si>
+  <si>
+    <t>1. Load website in browser
+2. Scroll down to bottom of homepage
+3. Click Allium name button
+4. Scroll down to bottom of Allium profile page
+5. Click 'Home button in footer nav bar</t>
+  </si>
+  <si>
+    <t>Homepage is loaded in browser</t>
+  </si>
+  <si>
+    <t>TC_NAV_012</t>
+  </si>
+  <si>
+    <t>'Plants' button in footer nav bar 
+of Allium plant profile page</t>
+  </si>
+  <si>
+    <t>1. Load website in browser
+2. Scroll down to bottom of homepage
+3. Click Allium name button
+4. Scroll down to bottom of Allium profile page
+5. Click 'Plants' button in footer nav bar</t>
+  </si>
+  <si>
+    <t>Plant selection at bottom of 
+homepage is loaded in browser</t>
+  </si>
+  <si>
+    <t>TC_NAV_013</t>
+  </si>
+  <si>
+    <t>'Gallery' button in footer nav bar 
+of Allium plant profile page</t>
+  </si>
+  <si>
+    <t>1. Load website in browser
+2. Scroll down to bottom of homepage
+3. Click Allium name button
+4. Scroll down to bottom of Allium profile page
+5. Click 'Gallery' button in footer nav bar</t>
   </si>
 </sst>
 </file>
@@ -546,7 +595,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -607,6 +656,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -664,8 +716,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3A16B4CF-6B47-484F-9383-05B102ED0A91}" name="Table1" displayName="Table1" ref="A7:K17" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1">
-  <autoFilter ref="A7:K17" xr:uid="{3A16B4CF-6B47-484F-9383-05B102ED0A91}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3A16B4CF-6B47-484F-9383-05B102ED0A91}" name="Table1" displayName="Table1" ref="A7:K20" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1">
+  <autoFilter ref="A7:K20" xr:uid="{3A16B4CF-6B47-484F-9383-05B102ED0A91}"/>
   <tableColumns count="11">
     <tableColumn id="11" xr3:uid="{42509C20-D03F-42EA-B308-FD280B040CAC}" name="Category" dataDxfId="0"/>
     <tableColumn id="1" xr3:uid="{0D04EE35-8A9B-42A3-AAD7-8C35C058484D}" name="Test Case ID"/>
@@ -1000,10 +1052,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C15" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1409,9 +1461,84 @@
         <v>76</v>
       </c>
     </row>
+    <row r="18" spans="1:11" ht="78" customHeight="1">
+      <c r="A18" s="9"/>
+      <c r="B18" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" s="12"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="11"/>
+    </row>
+    <row r="19" spans="1:11" ht="70.5" customHeight="1">
+      <c r="A19" s="9"/>
+      <c r="B19" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="H19" s="12"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="11"/>
+    </row>
+    <row r="20" spans="1:11" ht="71.25" customHeight="1">
+      <c r="A20" s="9"/>
+      <c r="B20" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" s="12"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="11"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J8:J17" xr:uid="{2F1C9CAE-F539-446B-BF9B-8EBE41EDDC96}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J8:J20" xr:uid="{2F1C9CAE-F539-446B-BF9B-8EBE41EDDC96}">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
   </dataValidations>
